--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_85__Reeval_Halton_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_85__Reeval_Halton_Modell_1.1.xlsx
@@ -5993,10 +5993,10 @@
                   <c:v>50.89521789550781</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.53429651260376</c:v>
+                  <c:v>2.534301519393921</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45.43975067138672</c:v>
+                  <c:v>45.43974685668945</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>56.4369010925293</c:v>
@@ -6020,19 +6020,19 @@
                   <c:v>72.64920043945312</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.653207302093506</c:v>
+                  <c:v>6.653212547302246</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>-0.1123198717832565</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50.5388298034668</c:v>
+                  <c:v>50.53884124755859</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>49.71453475952148</c:v>
+                  <c:v>49.71453094482422</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.4836006760597229</c:v>
+                  <c:v>0.4836055636405945</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>-0.1123198717832565</c:v>
@@ -6041,19 +6041,19 @@
                   <c:v>45.72490692138672</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.662416577339172</c:v>
+                  <c:v>-1.662426352500916</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>-0.1123198717832565</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>51.60794067382812</c:v>
+                  <c:v>51.60793685913086</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>-0.1123198717832565</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>48.51885986328125</c:v>
+                  <c:v>48.51886367797852</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>-0.1123198717832565</c:v>
@@ -6074,22 +6074,22 @@
                   <c:v>-0.1123198717832565</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.403627395629883</c:v>
+                  <c:v>4.403632164001465</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.08297888934612274</c:v>
+                  <c:v>0.08298379927873611</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>50.70880508422852</c:v>
+                  <c:v>50.70879745483398</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-0.1123198717832565</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.6026492118835449</c:v>
+                  <c:v>-0.6026540994644165</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.141164779663086</c:v>
+                  <c:v>3.141159772872925</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>8.520426750183105</c:v>
@@ -6122,13 +6122,13 @@
                   <c:v>14.80715179443359</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>53.21869659423828</c:v>
+                  <c:v>53.21868896484375</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1.640457510948181</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>12.70268535614014</c:v>
+                  <c:v>12.70268058776855</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>-0.1123198717832565</c:v>
@@ -6143,7 +6143,7 @@
                   <c:v>42.17998504638672</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>67.21310424804688</c:v>
+                  <c:v>67.21311187744141</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>-0.1123198717832565</c:v>
@@ -6164,7 +6164,7 @@
                   <c:v>-0.1123198717832565</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>51.82500839233398</c:v>
+                  <c:v>51.82501220703125</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>-0.1123198717832565</c:v>
@@ -6176,10 +6176,10 @@
                   <c:v>-0.1123198717832565</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>13.58352375030518</c:v>
+                  <c:v>13.58352851867676</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>50.73548126220703</c:v>
+                  <c:v>50.73548889160156</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>-0.1123198717832565</c:v>
@@ -6194,7 +6194,7 @@
                   <c:v>50.78900146484375</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>45.2065544128418</c:v>
+                  <c:v>45.20655059814453</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>-0.1123198717832565</c:v>
@@ -6206,43 +6206,43 @@
                   <c:v>51.84992599487305</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>50.98947906494141</c:v>
+                  <c:v>50.98948287963867</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>43.14297103881836</c:v>
+                  <c:v>43.14296722412109</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>-0.1123198717832565</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>16.36303329467773</c:v>
+                  <c:v>16.36302947998047</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>43.77187347412109</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>14.03260135650635</c:v>
+                  <c:v>14.03259658813477</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>37.87752151489258</c:v>
+                  <c:v>37.87752532958984</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.610998630523682</c:v>
+                  <c:v>3.610993623733521</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>51.3409423828125</c:v>
+                  <c:v>51.3409309387207</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>-0.1123198717832565</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>24.27069282531738</c:v>
+                  <c:v>24.27069664001465</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>-0.1123198717832565</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-6.288478374481201</c:v>
+                  <c:v>-6.288473606109619</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>8.772703170776367</c:v>
@@ -6251,7 +6251,7 @@
                   <c:v>50.84164428710938</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-0.6168432831764221</c:v>
+                  <c:v>-0.6168482303619385</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>-0.1123198717832565</c:v>
@@ -6272,7 +6272,7 @@
                   <c:v>3.238499641418457</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>48.81320953369141</c:v>
+                  <c:v>48.81320571899414</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>53.9850959777832</c:v>
@@ -6281,10 +6281,10 @@
                   <c:v>48.73764038085938</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>23.67577171325684</c:v>
+                  <c:v>23.67577934265137</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-1.328826189041138</c:v>
+                  <c:v>-1.328821301460266</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7043,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.53429651260376</v>
+        <v>2.534301519393921</v>
       </c>
       <c r="G4">
         <v>83</v>
@@ -7075,7 +7075,7 @@
         <v>42.1438</v>
       </c>
       <c r="F5">
-        <v>45.43975067138672</v>
+        <v>45.43974685668945</v>
       </c>
       <c r="G5">
         <v>83</v>
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>6.653207302093506</v>
+        <v>6.653212547302246</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7311,7 +7311,7 @@
         <v>48.3736</v>
       </c>
       <c r="F15">
-        <v>50.5388298034668</v>
+        <v>50.53884124755859</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7331,7 +7331,7 @@
         <v>41.5994</v>
       </c>
       <c r="F16">
-        <v>49.71453475952148</v>
+        <v>49.71453094482422</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.4836006760597229</v>
+        <v>0.4836055636405945</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>-1.662416577339172</v>
+        <v>-1.662426352500916</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>29.7064</v>
       </c>
       <c r="F22">
-        <v>51.60794067382812</v>
+        <v>51.60793685913086</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>37.4762</v>
       </c>
       <c r="F24">
-        <v>48.51885986328125</v>
+        <v>48.51886367797852</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>4.403627395629883</v>
+        <v>4.403632164001465</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0.08297888934612274</v>
+        <v>0.08298379927873611</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>45.5077</v>
       </c>
       <c r="F33">
-        <v>50.70880508422852</v>
+        <v>50.70879745483398</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>-0.6026492118835449</v>
+        <v>-0.6026540994644165</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>3.141164779663086</v>
+        <v>3.141159772872925</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>41.7163</v>
       </c>
       <c r="F47">
-        <v>53.21869659423828</v>
+        <v>53.21868896484375</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>12.70268535614014</v>
+        <v>12.70268058776855</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>57.1504</v>
       </c>
       <c r="F54">
-        <v>67.21310424804688</v>
+        <v>67.21311187744141</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>46.8311</v>
       </c>
       <c r="F61">
-        <v>51.82500839233398</v>
+        <v>51.82501220703125</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>50.5748</v>
       </c>
       <c r="F65">
-        <v>13.58352375030518</v>
+        <v>13.58352851867676</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>41.9705</v>
       </c>
       <c r="F66">
-        <v>50.73548126220703</v>
+        <v>50.73548889160156</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>41.7128</v>
       </c>
       <c r="F71">
-        <v>45.2065544128418</v>
+        <v>45.20655059814453</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>30.9889</v>
       </c>
       <c r="F75">
-        <v>50.98947906494141</v>
+        <v>50.98948287963867</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>43.1068</v>
       </c>
       <c r="F76">
-        <v>43.14297103881836</v>
+        <v>43.14296722412109</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>31.3181</v>
       </c>
       <c r="F78">
-        <v>16.36303329467773</v>
+        <v>16.36302947998047</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>38.3322</v>
       </c>
       <c r="F80">
-        <v>14.03260135650635</v>
+        <v>14.03259658813477</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>37.87752151489258</v>
+        <v>37.87752532958984</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>36.6463</v>
       </c>
       <c r="F82">
-        <v>3.610998630523682</v>
+        <v>3.610993623733521</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>55.7741</v>
       </c>
       <c r="F83">
-        <v>51.3409423828125</v>
+        <v>51.3409309387207</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>26.5272</v>
       </c>
       <c r="F85">
-        <v>24.27069282531738</v>
+        <v>24.27069664001465</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>49.6522</v>
       </c>
       <c r="F87">
-        <v>-6.288478374481201</v>
+        <v>-6.288473606109619</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>-0.6168432831764221</v>
+        <v>-0.6168482303619385</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8951,7 +8951,7 @@
         <v>46.3967</v>
       </c>
       <c r="F97">
-        <v>48.81320953369141</v>
+        <v>48.81320571899414</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -9011,7 +9011,7 @@
         <v>38.2511</v>
       </c>
       <c r="F100">
-        <v>23.67577171325684</v>
+        <v>23.67577934265137</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>-1.328826189041138</v>
+        <v>-1.328821301460266</v>
       </c>
     </row>
     <row r="102" spans="1:6">
